--- a/project_2 V2 - Bonus/DOS Project 2.xlsx
+++ b/project_2 V2 - Bonus/DOS Project 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcas\Documents\Distributed Operating System\Project 2\DOS_Project_2\project_2 V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcas\Documents\Distributed Operating System\Project 2\DOS_Project_2\project_2 V2 - Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC7C455-9F7B-42A1-9AF3-7D1911735753}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910EC10-95AE-4C40-87E2-17F528A2A61C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Full Network</t>
-  </si>
-  <si>
-    <t>Node Count</t>
   </si>
   <si>
     <t>Average</t>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Push Sum</t>
+  </si>
+  <si>
+    <t>Failure Rate</t>
   </si>
 </sst>
 </file>
@@ -201,21 +201,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -360,16 +345,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,25 +380,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -420,16 +404,19 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -441,22 +428,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +555,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$51</c:f>
+              <c:f>Sheet1!$B$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -639,54 +626,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$57</c:f>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$52:$B$57</c:f>
+              <c:f>Sheet1!$B$58:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>166.8</c:v>
+                  <c:v>1748.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.6</c:v>
+                  <c:v>75247.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>236</c:v>
+                  <c:v>68335.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230.2</c:v>
+                  <c:v>58804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>560</c:v>
+                  <c:v>52490.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1842.6</c:v>
+                  <c:v>42480.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38279.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +696,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$51</c:f>
+              <c:f>Sheet1!$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -774,54 +767,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$57</c:f>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$52:$C$57</c:f>
+              <c:f>Sheet1!$C$58:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>115.8</c:v>
+                  <c:v>4343.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>201</c:v>
+                  <c:v>11346.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>291.60000000000002</c:v>
+                  <c:v>15853.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>774.4</c:v>
+                  <c:v>20830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2114.4</c:v>
+                  <c:v>25155.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4448.8</c:v>
+                  <c:v>27423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30097</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,7 +837,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$51</c:f>
+              <c:f>Sheet1!$D$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -909,54 +908,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$57</c:f>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$52:$D$57</c:f>
+              <c:f>Sheet1!$D$58:$D$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>282</c:v>
+                  <c:v>302.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1623</c:v>
+                  <c:v>341.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1835.2</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310</c:v>
+                  <c:v>344.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>347.2</c:v>
+                  <c:v>344.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298.39999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -973,7 +978,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$51</c:f>
+              <c:f>Sheet1!$E$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1044,54 +1049,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$57</c:f>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$52:$E$57</c:f>
+              <c:f>Sheet1!$E$58:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>181.8</c:v>
+                  <c:v>250.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>222.2</c:v>
+                  <c:v>347.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>225.4</c:v>
+                  <c:v>353.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>217</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>232.4</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>266.60000000000002</c:v>
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275.60000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,7 +1119,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$51</c:f>
+              <c:f>Sheet1!$F$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1179,54 +1190,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$57</c:f>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$52:$F$57</c:f>
+              <c:f>Sheet1!$F$58:$F$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>124.6</c:v>
+                  <c:v>495.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185.2</c:v>
+                  <c:v>469.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205</c:v>
+                  <c:v>786.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245.4</c:v>
+                  <c:v>872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>394.4</c:v>
+                  <c:v>1706.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>503.2</c:v>
+                  <c:v>2744.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5515.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1243,7 +1260,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$51</c:f>
+              <c:f>Sheet1!$G$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1314,54 +1331,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$52:$A$57</c:f>
+              <c:f>Sheet1!$A$58:$A$64</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$52:$G$57</c:f>
+              <c:f>Sheet1!$G$58:$G$64</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>148.4</c:v>
+                  <c:v>237.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>181</c:v>
+                  <c:v>320.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>267.8</c:v>
+                  <c:v>250.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>204</c:v>
+                  <c:v>320.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220</c:v>
+                  <c:v>434.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>275.60000000000002</c:v>
+                  <c:v>456.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>827.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1481,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1501,7 +1524,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
+          <c:min val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1788,7 +1811,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$51</c:f>
+              <c:f>Sheet1!$L$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1859,54 +1882,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$52:$K$57</c:f>
+              <c:f>Sheet1!$K$58:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$52:$L$57</c:f>
+              <c:f>Sheet1!$L$58:$L$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>252.2</c:v>
+                  <c:v>14111.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>636.4</c:v>
+                  <c:v>18002.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>902.2</c:v>
+                  <c:v>23872.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1042.4000000000001</c:v>
+                  <c:v>25195.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3670</c:v>
+                  <c:v>26919.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16360.8</c:v>
+                  <c:v>27289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1923,7 +1946,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$51</c:f>
+              <c:f>Sheet1!$M$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1994,54 +2017,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$52:$K$57</c:f>
+              <c:f>Sheet1!$K$58:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$52:$M$57</c:f>
+              <c:f>Sheet1!$M$58:$M$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>414.6</c:v>
+                  <c:v>30003.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2686</c:v>
+                  <c:v>65739.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2665.6</c:v>
+                  <c:v>70884.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5798</c:v>
+                  <c:v>72529.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9510.6</c:v>
+                  <c:v>77061.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23488.2</c:v>
+                  <c:v>73705.399999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2081,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$51</c:f>
+              <c:f>Sheet1!$N$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2129,54 +2152,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$52:$K$57</c:f>
+              <c:f>Sheet1!$K$58:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$52:$N$57</c:f>
+              <c:f>Sheet1!$N$58:$N$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>43980.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>163.80000000000001</c:v>
+                  <c:v>48268.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2668.6</c:v>
+                  <c:v>33532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10414</c:v>
+                  <c:v>44873.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13337</c:v>
+                  <c:v>43016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42891.8</c:v>
+                  <c:v>43373.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2193,7 +2216,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$51</c:f>
+              <c:f>Sheet1!$O$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2264,54 +2287,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$52:$K$57</c:f>
+              <c:f>Sheet1!$K$58:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$52:$O$57</c:f>
+              <c:f>Sheet1!$O$58:$O$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>205.2</c:v>
+                  <c:v>10627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191.8</c:v>
+                  <c:v>11241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.4</c:v>
+                  <c:v>10695.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2191.4</c:v>
+                  <c:v>12623.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4991.3999999999996</c:v>
+                  <c:v>11860.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10380.799999999999</c:v>
+                  <c:v>12285.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,7 +2351,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$P$51</c:f>
+              <c:f>Sheet1!$P$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2399,54 +2422,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$52:$K$57</c:f>
+              <c:f>Sheet1!$K$58:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$P$52:$P$57</c:f>
+              <c:f>Sheet1!$P$58:$P$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>736.2</c:v>
+                  <c:v>44354.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>811.6</c:v>
+                  <c:v>33035.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5561</c:v>
+                  <c:v>15928.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10098.4</c:v>
+                  <c:v>13725.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14515</c:v>
+                  <c:v>12800.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44340.800000000003</c:v>
+                  <c:v>11675.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,7 +2486,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$51</c:f>
+              <c:f>Sheet1!$Q$57</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2534,54 +2557,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$K$52:$K$57</c:f>
+              <c:f>Sheet1!$K$58:$K$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$52:$Q$57</c:f>
+              <c:f>Sheet1!$Q$58:$Q$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>717.6</c:v>
+                  <c:v>5886.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>681.4</c:v>
+                  <c:v>7276.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2864.2</c:v>
+                  <c:v>9012.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3766.8</c:v>
+                  <c:v>8870.2000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4927</c:v>
+                  <c:v>9340</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5897.4</c:v>
+                  <c:v>8315.2000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,7 +2744,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
+          <c:min val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2792,7 +2815,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4006,13 +4029,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4042,13 +4065,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1588</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4340,10 +4363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4355,2472 +4378,2812 @@
     <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="K1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+      <c r="K1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="25"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="K2" s="23" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="K2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="25"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="22"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>5</v>
+      <c r="A4" s="5">
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>185</v>
+        <v>1752</v>
       </c>
       <c r="C4">
-        <v>172</v>
+        <v>1753</v>
       </c>
       <c r="D4">
-        <v>155</v>
+        <v>1728</v>
       </c>
       <c r="E4">
-        <v>159</v>
+        <v>1754</v>
       </c>
       <c r="F4">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7">
+        <v>1756</v>
+      </c>
+      <c r="G4" s="6">
         <f>AVERAGE(B4:F4)</f>
-        <v>166.8</v>
-      </c>
-      <c r="K4" s="6">
-        <v>5</v>
+        <v>1748.6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>254</v>
+        <v>14076</v>
       </c>
       <c r="M4">
-        <v>353</v>
+        <v>14008</v>
       </c>
       <c r="N4">
-        <v>208</v>
+        <v>13470</v>
       </c>
       <c r="O4">
-        <v>328</v>
+        <v>13849</v>
       </c>
       <c r="P4">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="7">
+        <v>15155</v>
+      </c>
+      <c r="Q4" s="6">
         <f>AVERAGE(L4:P4)</f>
-        <v>252.2</v>
+        <v>14111.6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>10</v>
+      <c r="A5" s="5">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>177</v>
+        <v>75972</v>
       </c>
       <c r="C5">
-        <v>158</v>
+        <v>75522</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>76467</v>
       </c>
       <c r="E5">
-        <v>339</v>
+        <v>75315</v>
       </c>
       <c r="F5">
-        <v>145</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" ref="G5:G9" si="0">AVERAGE(B5:F5)</f>
-        <v>194.6</v>
-      </c>
-      <c r="K5" s="6">
-        <v>10</v>
+        <v>72963</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G10" si="0">AVERAGE(B5:F5)</f>
+        <v>75247.8</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>660</v>
+        <v>17902</v>
       </c>
       <c r="M5">
-        <v>643</v>
+        <v>17425</v>
       </c>
       <c r="N5">
-        <v>619</v>
+        <v>18370</v>
       </c>
       <c r="O5">
-        <v>554</v>
+        <v>16680</v>
       </c>
       <c r="P5">
-        <v>706</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" ref="Q5:Q9" si="1">AVERAGE(L5:P5)</f>
-        <v>636.4</v>
+        <v>19635</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" ref="Q5:Q10" si="1">AVERAGE(L5:P5)</f>
+        <v>18002.400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>50</v>
+      <c r="A6" s="5">
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>207</v>
+        <v>69315</v>
       </c>
       <c r="C6">
-        <v>199</v>
+        <v>66701</v>
       </c>
       <c r="D6">
-        <v>233</v>
+        <v>69281</v>
       </c>
       <c r="E6">
-        <v>231</v>
+        <v>68938</v>
       </c>
       <c r="F6">
-        <v>310</v>
-      </c>
-      <c r="G6" s="7">
+        <v>67443</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>236</v>
-      </c>
-      <c r="K6" s="6">
-        <v>50</v>
+        <v>68335.600000000006</v>
+      </c>
+      <c r="K6" s="5">
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>770</v>
+        <v>25163</v>
       </c>
       <c r="M6">
-        <v>827</v>
+        <v>23503</v>
       </c>
       <c r="N6">
-        <v>801</v>
+        <v>24524</v>
       </c>
       <c r="O6">
-        <v>866</v>
+        <v>21981</v>
       </c>
       <c r="P6">
-        <v>1247</v>
-      </c>
-      <c r="Q6" s="7">
+        <v>24193</v>
+      </c>
+      <c r="Q6" s="6">
         <f t="shared" si="1"/>
-        <v>902.2</v>
+        <v>23872.799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>100</v>
+      <c r="A7" s="5">
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>222</v>
+        <v>63458</v>
       </c>
       <c r="C7">
-        <v>231</v>
+        <v>57605</v>
       </c>
       <c r="D7">
-        <v>222</v>
+        <v>57004</v>
       </c>
       <c r="E7">
-        <v>247</v>
+        <v>55961</v>
       </c>
       <c r="F7">
-        <v>229</v>
-      </c>
-      <c r="G7" s="7">
+        <v>59992</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>230.2</v>
-      </c>
-      <c r="K7" s="6">
-        <v>100</v>
+        <v>58804</v>
+      </c>
+      <c r="K7" s="5">
+        <v>15</v>
       </c>
       <c r="L7">
-        <v>994</v>
+        <v>23431</v>
       </c>
       <c r="M7">
-        <v>848</v>
+        <v>28391</v>
       </c>
       <c r="N7">
-        <v>1305</v>
+        <v>23484</v>
       </c>
       <c r="O7">
-        <v>1250</v>
+        <v>23107</v>
       </c>
       <c r="P7">
-        <v>815</v>
-      </c>
-      <c r="Q7" s="7">
+        <v>27566</v>
+      </c>
+      <c r="Q7" s="6">
         <f t="shared" si="1"/>
-        <v>1042.4000000000001</v>
+        <v>25195.8</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>500</v>
+      <c r="A8" s="5">
+        <v>20</v>
       </c>
       <c r="B8">
-        <v>605</v>
+        <v>54280</v>
       </c>
       <c r="C8">
-        <v>538</v>
+        <v>48464</v>
       </c>
       <c r="D8">
-        <v>550</v>
+        <v>49142</v>
       </c>
       <c r="E8">
-        <v>544</v>
+        <v>59918</v>
       </c>
       <c r="F8">
-        <v>563</v>
-      </c>
-      <c r="G8" s="7">
+        <v>50647</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="K8" s="6">
-        <v>500</v>
+        <v>52490.2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>20</v>
       </c>
       <c r="L8">
-        <v>3395</v>
+        <v>31313</v>
       </c>
       <c r="M8">
-        <v>3545</v>
+        <v>24696</v>
       </c>
       <c r="N8">
-        <v>3569</v>
+        <v>25417</v>
       </c>
       <c r="O8">
-        <v>3712</v>
+        <v>25235</v>
       </c>
       <c r="P8">
-        <v>4129</v>
-      </c>
-      <c r="Q8" s="7">
+        <v>27936</v>
+      </c>
+      <c r="Q8" s="6">
         <f t="shared" si="1"/>
-        <v>3670</v>
+        <v>26919.4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>1000</v>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>1911</v>
+        <v>41308</v>
       </c>
       <c r="C9">
-        <v>1891</v>
+        <v>45201</v>
       </c>
       <c r="D9">
-        <v>1809</v>
+        <v>42312</v>
       </c>
       <c r="E9">
-        <v>1829</v>
+        <v>38601</v>
       </c>
       <c r="F9">
-        <v>1773</v>
-      </c>
-      <c r="G9" s="9">
+        <v>44981</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>1842.6</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1000</v>
+        <v>42480.6</v>
+      </c>
+      <c r="K9" s="7">
+        <v>25</v>
       </c>
       <c r="L9">
-        <v>16156</v>
+        <v>27891</v>
       </c>
       <c r="M9">
-        <v>16958</v>
+        <v>26947</v>
       </c>
       <c r="N9">
-        <v>16308</v>
+        <v>29341</v>
       </c>
       <c r="O9">
-        <v>16251</v>
+        <v>26899</v>
       </c>
       <c r="P9">
-        <v>16131</v>
-      </c>
-      <c r="Q9" s="12">
+        <v>25367</v>
+      </c>
+      <c r="Q9" s="8">
         <f t="shared" si="1"/>
-        <v>16360.8</v>
+        <v>27289</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="K10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>30</v>
+      </c>
+      <c r="B10">
+        <v>37743</v>
+      </c>
+      <c r="C10">
+        <v>37766</v>
+      </c>
+      <c r="D10">
+        <v>38823</v>
+      </c>
+      <c r="E10">
+        <v>38726</v>
+      </c>
+      <c r="F10">
+        <v>38338</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>38279.199999999997</v>
+      </c>
+      <c r="K10" s="19">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>27510</v>
+      </c>
+      <c r="M10">
+        <v>26377</v>
+      </c>
+      <c r="N10">
+        <v>22453</v>
+      </c>
+      <c r="O10">
+        <v>30140</v>
+      </c>
+      <c r="P10">
+        <v>25172</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="1"/>
+        <v>26330.400000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="A11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="K11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>114</v>
-      </c>
-      <c r="C12">
-        <v>96</v>
-      </c>
-      <c r="D12">
-        <v>126</v>
-      </c>
-      <c r="E12">
-        <v>108</v>
-      </c>
-      <c r="F12">
-        <v>135</v>
-      </c>
-      <c r="G12" s="7">
-        <f>AVERAGE(B12:F12)</f>
-        <v>115.8</v>
-      </c>
-      <c r="K12" s="6">
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L12">
-        <v>1120</v>
-      </c>
-      <c r="M12">
-        <v>244</v>
-      </c>
-      <c r="N12">
-        <v>154</v>
-      </c>
-      <c r="O12">
-        <v>129</v>
-      </c>
-      <c r="P12">
-        <v>426</v>
-      </c>
-      <c r="Q12" s="7">
-        <f>AVERAGE(L12:P12)</f>
-        <v>414.6</v>
+      <c r="O12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>10</v>
+      <c r="A13" s="5">
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>175</v>
+        <v>5829</v>
       </c>
       <c r="C13">
-        <v>192</v>
+        <v>3065</v>
       </c>
       <c r="D13">
-        <v>174</v>
+        <v>3955</v>
       </c>
       <c r="E13">
-        <v>204</v>
+        <v>5733</v>
       </c>
       <c r="F13">
-        <v>260</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" ref="G13:G17" si="2">AVERAGE(B13:F13)</f>
-        <v>201</v>
-      </c>
-      <c r="K13" s="6">
-        <v>10</v>
+        <v>3135</v>
+      </c>
+      <c r="G13" s="6">
+        <f>AVERAGE(B13:F13)</f>
+        <v>4343.3999999999996</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5596</v>
+        <v>28639</v>
       </c>
       <c r="M13">
-        <v>2181</v>
+        <v>26732</v>
       </c>
       <c r="N13">
-        <v>1089</v>
+        <v>33371</v>
       </c>
       <c r="O13">
-        <v>2370</v>
+        <v>36885</v>
       </c>
       <c r="P13">
-        <v>2194</v>
-      </c>
-      <c r="Q13" s="7">
-        <f t="shared" ref="Q13:Q17" si="3">AVERAGE(L13:P13)</f>
-        <v>2686</v>
+        <v>24391</v>
+      </c>
+      <c r="Q13" s="6">
+        <f>AVERAGE(L13:P13)</f>
+        <v>30003.599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>50</v>
+      <c r="A14" s="5">
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>298</v>
+        <v>12343</v>
       </c>
       <c r="C14">
-        <v>305</v>
+        <v>10212</v>
       </c>
       <c r="D14">
-        <v>247</v>
+        <v>11656</v>
       </c>
       <c r="E14">
-        <v>288</v>
+        <v>11548</v>
       </c>
       <c r="F14">
-        <v>320</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="2"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="K14" s="6">
-        <v>50</v>
+        <v>10972</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" ref="G14:G19" si="2">AVERAGE(B14:F14)</f>
+        <v>11346.2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>2699</v>
+        <v>67999</v>
       </c>
       <c r="M14">
-        <v>1085</v>
+        <v>58998</v>
       </c>
       <c r="N14">
-        <v>2909</v>
+        <v>66190</v>
       </c>
       <c r="O14">
-        <v>2652</v>
+        <v>73120</v>
       </c>
       <c r="P14">
-        <v>3983</v>
-      </c>
-      <c r="Q14" s="7">
-        <f t="shared" si="3"/>
-        <v>2665.6</v>
+        <v>62389</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" ref="Q14:Q19" si="3">AVERAGE(L14:P14)</f>
+        <v>65739.199999999997</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>100</v>
+      <c r="A15" s="5">
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>893</v>
+        <v>16461</v>
       </c>
       <c r="C15">
-        <v>430</v>
+        <v>16613</v>
       </c>
       <c r="D15">
-        <v>783</v>
+        <v>14741</v>
       </c>
       <c r="E15">
-        <v>571</v>
+        <v>16048</v>
       </c>
       <c r="F15">
-        <v>1195</v>
-      </c>
-      <c r="G15" s="7">
+        <v>15404</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="2"/>
-        <v>774.4</v>
-      </c>
-      <c r="K15" s="6">
-        <v>100</v>
+        <v>15853.4</v>
+      </c>
+      <c r="K15" s="5">
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>7106</v>
+        <v>75507</v>
       </c>
       <c r="M15">
-        <v>3851</v>
+        <v>70196</v>
       </c>
       <c r="N15">
-        <v>6865</v>
+        <v>75059</v>
       </c>
       <c r="O15">
-        <v>4797</v>
+        <v>75076</v>
       </c>
       <c r="P15">
-        <v>6371</v>
-      </c>
-      <c r="Q15" s="7">
+        <v>58583</v>
+      </c>
+      <c r="Q15" s="6">
         <f t="shared" si="3"/>
-        <v>5798</v>
+        <v>70884.2</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>500</v>
+      <c r="A16" s="5">
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>2936</v>
+        <v>20174</v>
       </c>
       <c r="C16">
-        <v>1951</v>
+        <v>20351</v>
       </c>
       <c r="D16">
-        <v>1614</v>
+        <v>20746</v>
       </c>
       <c r="E16">
-        <v>1998</v>
+        <v>22504</v>
       </c>
       <c r="F16">
-        <v>2073</v>
-      </c>
-      <c r="G16" s="7">
+        <v>20375</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="2"/>
-        <v>2114.4</v>
-      </c>
-      <c r="K16" s="6">
-        <v>500</v>
+        <v>20830</v>
+      </c>
+      <c r="K16" s="5">
+        <v>15</v>
       </c>
       <c r="L16">
-        <v>15317</v>
+        <v>77668</v>
       </c>
       <c r="M16">
-        <v>11007</v>
+        <v>66493</v>
       </c>
       <c r="N16">
-        <v>10054</v>
+        <v>77236</v>
       </c>
       <c r="O16">
-        <v>6220</v>
+        <v>68346</v>
       </c>
       <c r="P16">
-        <v>4955</v>
-      </c>
-      <c r="Q16" s="7">
+        <v>72906</v>
+      </c>
+      <c r="Q16" s="6">
         <f t="shared" si="3"/>
-        <v>9510.6</v>
+        <v>72529.8</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>1000</v>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>4258</v>
+        <v>22608</v>
       </c>
       <c r="C17">
-        <v>3608</v>
+        <v>23903</v>
       </c>
       <c r="D17">
-        <v>3750</v>
+        <v>24793</v>
       </c>
       <c r="E17">
-        <v>5538</v>
+        <v>26754</v>
       </c>
       <c r="F17">
-        <v>5090</v>
-      </c>
-      <c r="G17" s="12">
+        <v>27720</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>4448.8</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1000</v>
+        <v>25155.599999999999</v>
+      </c>
+      <c r="K17" s="5">
+        <v>20</v>
       </c>
       <c r="L17">
-        <v>12723</v>
+        <v>73683</v>
       </c>
       <c r="M17">
-        <v>37728</v>
+        <v>82305</v>
       </c>
       <c r="N17">
-        <v>12044</v>
+        <v>72351</v>
       </c>
       <c r="O17">
-        <v>29967</v>
+        <v>74236</v>
       </c>
       <c r="P17">
-        <v>24979</v>
-      </c>
-      <c r="Q17" s="12">
+        <v>82731</v>
+      </c>
+      <c r="Q17" s="6">
         <f t="shared" si="3"/>
-        <v>23488.2</v>
+        <v>77061.2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="K18" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>26679</v>
+      </c>
+      <c r="C18">
+        <v>26912</v>
+      </c>
+      <c r="D18">
+        <v>27374</v>
+      </c>
+      <c r="E18">
+        <v>25703</v>
+      </c>
+      <c r="F18">
+        <v>30447</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="2"/>
+        <v>27423</v>
+      </c>
+      <c r="K18" s="7">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>82580</v>
+      </c>
+      <c r="M18">
+        <v>69922</v>
+      </c>
+      <c r="N18">
+        <v>71777</v>
+      </c>
+      <c r="O18">
+        <v>70599</v>
+      </c>
+      <c r="P18">
+        <v>73649</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="3"/>
+        <v>73705.399999999994</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>3</v>
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>30260</v>
+      </c>
+      <c r="C19">
+        <v>31728</v>
+      </c>
+      <c r="D19">
+        <v>30044</v>
+      </c>
+      <c r="E19">
+        <v>29243</v>
+      </c>
+      <c r="F19">
+        <v>29210</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="2"/>
+        <v>30097</v>
+      </c>
+      <c r="K19" s="19">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>78197</v>
+      </c>
+      <c r="M19">
+        <v>71201</v>
+      </c>
+      <c r="N19">
+        <v>74352</v>
+      </c>
+      <c r="O19">
+        <v>73081</v>
+      </c>
+      <c r="P19">
+        <v>78960</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="3"/>
+        <v>75158.2</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>75</v>
-      </c>
-      <c r="C20">
-        <v>61</v>
-      </c>
-      <c r="D20">
-        <v>161</v>
-      </c>
-      <c r="E20">
-        <v>72</v>
-      </c>
-      <c r="F20">
-        <v>81</v>
-      </c>
-      <c r="G20" s="7">
-        <f>AVERAGE(B20:F20)</f>
-        <v>90</v>
-      </c>
-      <c r="K20" s="6">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>133</v>
-      </c>
-      <c r="M20">
-        <v>62</v>
-      </c>
-      <c r="N20">
-        <v>82</v>
-      </c>
-      <c r="O20">
-        <v>62</v>
-      </c>
-      <c r="P20">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7">
-        <f>AVERAGE(L20:P20)</f>
-        <v>89</v>
-      </c>
+      <c r="A20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="K20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>167</v>
-      </c>
-      <c r="C21">
-        <v>132</v>
-      </c>
-      <c r="D21">
-        <v>233</v>
-      </c>
-      <c r="E21">
-        <v>175</v>
-      </c>
-      <c r="F21">
-        <v>703</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" ref="G21:G25" si="4">AVERAGE(B21:F21)</f>
-        <v>282</v>
-      </c>
-      <c r="K21" s="6">
-        <v>10</v>
-      </c>
-      <c r="L21">
-        <v>147</v>
-      </c>
-      <c r="M21">
-        <v>245</v>
-      </c>
-      <c r="N21">
-        <v>146</v>
-      </c>
-      <c r="O21">
-        <v>117</v>
-      </c>
-      <c r="P21">
-        <v>164</v>
-      </c>
-      <c r="Q21" s="7">
-        <f t="shared" ref="Q21:Q25" si="5">AVERAGE(L21:P21)</f>
-        <v>163.80000000000001</v>
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>50</v>
+      <c r="A22" s="5">
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>2403</v>
+        <v>795</v>
       </c>
       <c r="C22">
-        <v>1365</v>
+        <v>384</v>
       </c>
       <c r="D22">
-        <v>1289</v>
+        <v>318</v>
       </c>
       <c r="E22">
-        <v>1503</v>
+        <v>304</v>
       </c>
       <c r="F22">
-        <v>1555</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="4"/>
-        <v>1623</v>
-      </c>
-      <c r="K22" s="6">
-        <v>50</v>
+        <v>299</v>
+      </c>
+      <c r="G22" s="6">
+        <f>AVERAGE(B22:F22)</f>
+        <v>420</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>2829</v>
+        <v>37742</v>
       </c>
       <c r="M22">
-        <v>1505</v>
+        <v>41249</v>
       </c>
       <c r="N22">
-        <v>2985</v>
+        <v>44601</v>
       </c>
       <c r="O22">
-        <v>3161</v>
+        <v>48684</v>
       </c>
       <c r="P22">
-        <v>2863</v>
-      </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="5"/>
-        <v>2668.6</v>
+        <v>47628</v>
+      </c>
+      <c r="Q22" s="6">
+        <f>AVERAGE(L22:P22)</f>
+        <v>43980.800000000003</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>100</v>
+      <c r="A23" s="5">
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>2388</v>
+        <v>324</v>
       </c>
       <c r="C23">
-        <v>1207</v>
+        <v>300</v>
       </c>
       <c r="D23">
-        <v>1840</v>
+        <v>291</v>
       </c>
       <c r="E23">
-        <v>1935</v>
+        <v>285</v>
       </c>
       <c r="F23">
-        <v>1806</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="4"/>
-        <v>1835.2</v>
-      </c>
-      <c r="K23" s="6">
-        <v>100</v>
+        <v>314</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" ref="G23:G28" si="4">AVERAGE(B23:F23)</f>
+        <v>302.8</v>
+      </c>
+      <c r="K23" s="5">
+        <v>5</v>
       </c>
       <c r="L23">
-        <v>18016</v>
+        <v>52791</v>
       </c>
       <c r="M23">
-        <v>10635</v>
+        <v>45938</v>
       </c>
       <c r="N23">
-        <v>8110</v>
+        <v>43779</v>
       </c>
       <c r="O23">
-        <v>7535</v>
+        <v>45973</v>
       </c>
       <c r="P23">
-        <v>7774</v>
-      </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="5"/>
-        <v>10414</v>
+        <v>52863</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" ref="Q23:Q28" si="5">AVERAGE(L23:P23)</f>
+        <v>48268.800000000003</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>500</v>
+      <c r="A24" s="5">
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>334</v>
+        <v>387</v>
       </c>
       <c r="C24">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="D24">
+        <v>323</v>
+      </c>
+      <c r="E24">
+        <v>312</v>
+      </c>
+      <c r="F24">
+        <v>339</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="4"/>
+        <v>341.6</v>
+      </c>
+      <c r="K24" s="5">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>47168</v>
+      </c>
+      <c r="M24">
+        <v>3913</v>
+      </c>
+      <c r="N24">
+        <v>34742</v>
+      </c>
+      <c r="O24">
+        <v>44289</v>
+      </c>
+      <c r="P24">
+        <v>37548</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="5"/>
+        <v>33532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25">
         <v>315</v>
       </c>
-      <c r="E24">
-        <v>283</v>
-      </c>
-      <c r="F24">
-        <v>292</v>
-      </c>
-      <c r="G24" s="7">
+      <c r="C25">
+        <v>323</v>
+      </c>
+      <c r="D25">
+        <v>294</v>
+      </c>
+      <c r="E25">
+        <v>306</v>
+      </c>
+      <c r="F25">
+        <v>332</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="4"/>
-        <v>310</v>
-      </c>
-      <c r="K24" s="6">
-        <v>500</v>
-      </c>
-      <c r="L24">
-        <v>10669</v>
-      </c>
-      <c r="M24">
-        <v>8251</v>
-      </c>
-      <c r="N24">
-        <v>7904</v>
-      </c>
-      <c r="O24">
-        <v>33901</v>
-      </c>
-      <c r="P24">
-        <v>5960</v>
-      </c>
-      <c r="Q24" s="7">
+        <v>314</v>
+      </c>
+      <c r="K25" s="5">
+        <v>15</v>
+      </c>
+      <c r="L25">
+        <v>38842</v>
+      </c>
+      <c r="M25">
+        <v>47873</v>
+      </c>
+      <c r="N25">
+        <v>47230</v>
+      </c>
+      <c r="O25">
+        <v>43288</v>
+      </c>
+      <c r="P25">
+        <v>47136</v>
+      </c>
+      <c r="Q25" s="6">
         <f t="shared" si="5"/>
-        <v>13337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>1000</v>
-      </c>
-      <c r="B25">
-        <v>303</v>
-      </c>
-      <c r="C25">
-        <v>296</v>
-      </c>
-      <c r="D25">
-        <v>333</v>
-      </c>
-      <c r="E25">
-        <v>475</v>
-      </c>
-      <c r="F25">
-        <v>329</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" si="4"/>
-        <v>347.2</v>
-      </c>
-      <c r="K25" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L25">
-        <v>48995</v>
-      </c>
-      <c r="M25">
-        <v>37125</v>
-      </c>
-      <c r="N25">
-        <v>45281</v>
-      </c>
-      <c r="O25">
-        <v>35919</v>
-      </c>
-      <c r="P25">
-        <v>47139</v>
-      </c>
-      <c r="Q25" s="12">
-        <f t="shared" si="5"/>
-        <v>42891.8</v>
+        <v>44873.8</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="K26" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
+      <c r="A26" s="5">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>299</v>
+      </c>
+      <c r="C26">
+        <v>304</v>
+      </c>
+      <c r="D26">
+        <v>307</v>
+      </c>
+      <c r="E26">
+        <v>467</v>
+      </c>
+      <c r="F26">
+        <v>347</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="4"/>
+        <v>344.8</v>
+      </c>
+      <c r="K26" s="5">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>46772</v>
+      </c>
+      <c r="M26">
+        <v>43397</v>
+      </c>
+      <c r="N26">
+        <v>40663</v>
+      </c>
+      <c r="O26">
+        <v>42004</v>
+      </c>
+      <c r="P26">
+        <v>42244</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="5"/>
+        <v>43016</v>
+      </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>3</v>
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>306</v>
+      </c>
+      <c r="C27">
+        <v>321</v>
+      </c>
+      <c r="D27">
+        <v>304</v>
+      </c>
+      <c r="E27">
+        <v>461</v>
+      </c>
+      <c r="F27">
+        <v>331</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="4"/>
+        <v>344.6</v>
+      </c>
+      <c r="K27" s="7">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>44299</v>
+      </c>
+      <c r="M27">
+        <v>45047</v>
+      </c>
+      <c r="N27">
+        <v>37403</v>
+      </c>
+      <c r="O27">
+        <v>43906</v>
+      </c>
+      <c r="P27">
+        <v>46212</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="5"/>
+        <v>43373.4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>5</v>
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="C28">
-        <v>211</v>
+        <v>303</v>
       </c>
       <c r="D28">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="E28">
-        <v>134</v>
+        <v>337</v>
       </c>
       <c r="F28">
-        <v>156</v>
-      </c>
-      <c r="G28" s="7">
-        <f>AVERAGE(B28:F28)</f>
-        <v>181.8</v>
-      </c>
-      <c r="K28" s="6">
-        <v>5</v>
+        <v>276</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="4"/>
+        <v>298.39999999999998</v>
+      </c>
+      <c r="K28" s="19">
+        <v>30</v>
       </c>
       <c r="L28">
-        <v>117</v>
+        <v>38435</v>
       </c>
       <c r="M28">
-        <v>305</v>
+        <v>47583</v>
       </c>
       <c r="N28">
-        <v>198</v>
+        <v>51707</v>
       </c>
       <c r="O28">
-        <v>168</v>
+        <v>50107</v>
       </c>
       <c r="P28">
-        <v>238</v>
-      </c>
-      <c r="Q28" s="7">
-        <f>AVERAGE(L28:P28)</f>
-        <v>205.2</v>
+        <v>46448</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="5"/>
+        <v>46856</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B29">
-        <v>286</v>
-      </c>
-      <c r="C29">
-        <v>190</v>
-      </c>
-      <c r="D29">
-        <v>165</v>
-      </c>
-      <c r="E29">
-        <v>201</v>
-      </c>
-      <c r="F29">
-        <v>269</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" ref="G29:G33" si="6">AVERAGE(B29:F29)</f>
-        <v>222.2</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="K29" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L29">
-        <v>173</v>
-      </c>
-      <c r="M29">
-        <v>149</v>
-      </c>
-      <c r="N29">
-        <v>319</v>
-      </c>
-      <c r="O29">
-        <v>172</v>
-      </c>
-      <c r="P29">
-        <v>146</v>
-      </c>
-      <c r="Q29" s="7">
-        <f t="shared" ref="Q29:Q33" si="7">AVERAGE(L29:P29)</f>
-        <v>191.8</v>
-      </c>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="22"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>50</v>
-      </c>
-      <c r="B30">
-        <v>181</v>
-      </c>
-      <c r="C30">
-        <v>172</v>
-      </c>
-      <c r="D30">
-        <v>200</v>
-      </c>
-      <c r="E30">
-        <v>228</v>
-      </c>
-      <c r="F30">
-        <v>346</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="6"/>
-        <v>225.4</v>
-      </c>
-      <c r="K30" s="6">
-        <v>50</v>
-      </c>
-      <c r="L30">
-        <v>622</v>
-      </c>
-      <c r="M30">
-        <v>2058</v>
-      </c>
-      <c r="N30">
-        <v>1584</v>
-      </c>
-      <c r="O30">
-        <v>1442</v>
-      </c>
-      <c r="P30">
-        <v>1956</v>
-      </c>
-      <c r="Q30" s="7">
-        <f t="shared" si="7"/>
-        <v>1532.4</v>
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>100</v>
+      <c r="A31" s="5">
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>193</v>
+        <v>251</v>
       </c>
       <c r="C31">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="D31">
-        <v>333</v>
+        <v>239</v>
       </c>
       <c r="E31">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="F31">
-        <v>183</v>
-      </c>
-      <c r="G31" s="7">
-        <f t="shared" si="6"/>
-        <v>217</v>
-      </c>
-      <c r="K31" s="6">
-        <v>100</v>
+        <v>252</v>
+      </c>
+      <c r="G31" s="6">
+        <f>AVERAGE(B31:F31)</f>
+        <v>250.4</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>2298</v>
+        <v>10553</v>
       </c>
       <c r="M31">
-        <v>2184</v>
+        <v>10584</v>
       </c>
       <c r="N31">
-        <v>2206</v>
+        <v>10253</v>
       </c>
       <c r="O31">
-        <v>2039</v>
+        <v>10966</v>
       </c>
       <c r="P31">
-        <v>2230</v>
-      </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="7"/>
-        <v>2191.4</v>
+        <v>10779</v>
+      </c>
+      <c r="Q31" s="6">
+        <f>AVERAGE(L31:P31)</f>
+        <v>10627</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>500</v>
+      <c r="A32" s="5">
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="C32">
-        <v>229</v>
+        <v>619</v>
       </c>
       <c r="D32">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="E32">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F32">
-        <v>233</v>
-      </c>
-      <c r="G32" s="7">
+        <v>281</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" ref="G32:G37" si="6">AVERAGE(B32:F32)</f>
+        <v>347.4</v>
+      </c>
+      <c r="K32" s="5">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>11207</v>
+      </c>
+      <c r="M32">
+        <v>11249</v>
+      </c>
+      <c r="N32">
+        <v>11609</v>
+      </c>
+      <c r="O32">
+        <v>11053</v>
+      </c>
+      <c r="P32">
+        <v>11087</v>
+      </c>
+      <c r="Q32" s="6">
+        <f t="shared" ref="Q32:Q37" si="7">AVERAGE(L32:P32)</f>
+        <v>11241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>260</v>
+      </c>
+      <c r="C33">
+        <v>263</v>
+      </c>
+      <c r="D33">
+        <v>261</v>
+      </c>
+      <c r="E33">
+        <v>708</v>
+      </c>
+      <c r="F33">
+        <v>274</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="6"/>
-        <v>232.4</v>
-      </c>
-      <c r="K32" s="6">
-        <v>500</v>
-      </c>
-      <c r="L32">
-        <v>5281</v>
-      </c>
-      <c r="M32">
-        <v>4730</v>
-      </c>
-      <c r="N32">
-        <v>5084</v>
-      </c>
-      <c r="O32">
-        <v>4859</v>
-      </c>
-      <c r="P32">
-        <v>5003</v>
-      </c>
-      <c r="Q32" s="7">
+        <v>353.2</v>
+      </c>
+      <c r="K33" s="5">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>10946</v>
+      </c>
+      <c r="M33">
+        <v>10936</v>
+      </c>
+      <c r="N33">
+        <v>10511</v>
+      </c>
+      <c r="O33">
+        <v>10593</v>
+      </c>
+      <c r="P33">
+        <v>10492</v>
+      </c>
+      <c r="Q33" s="6">
         <f t="shared" si="7"/>
-        <v>4991.3999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8">
-        <v>1000</v>
-      </c>
-      <c r="B33">
-        <v>276</v>
-      </c>
-      <c r="C33">
-        <v>271</v>
-      </c>
-      <c r="D33">
-        <v>267</v>
-      </c>
-      <c r="E33">
-        <v>270</v>
-      </c>
-      <c r="F33">
-        <v>249</v>
-      </c>
-      <c r="G33" s="9">
-        <f t="shared" si="6"/>
-        <v>266.60000000000002</v>
-      </c>
-      <c r="K33" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L33">
-        <v>11100</v>
-      </c>
-      <c r="M33">
-        <v>10178</v>
-      </c>
-      <c r="N33">
-        <v>10001</v>
-      </c>
-      <c r="O33">
-        <v>10250</v>
-      </c>
-      <c r="P33">
-        <v>10375</v>
-      </c>
-      <c r="Q33" s="12">
-        <f t="shared" si="7"/>
-        <v>10380.799999999999</v>
+        <v>10695.6</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-      <c r="K34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="25"/>
+      <c r="A34" s="5">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>269</v>
+      </c>
+      <c r="C34">
+        <v>346</v>
+      </c>
+      <c r="D34">
+        <v>291</v>
+      </c>
+      <c r="E34">
+        <v>259</v>
+      </c>
+      <c r="F34">
+        <v>275</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="6"/>
+        <v>288</v>
+      </c>
+      <c r="K34" s="5">
+        <v>15</v>
+      </c>
+      <c r="L34">
+        <v>11935</v>
+      </c>
+      <c r="M34">
+        <v>15543</v>
+      </c>
+      <c r="N34">
+        <v>10661</v>
+      </c>
+      <c r="O34">
+        <v>11367</v>
+      </c>
+      <c r="P34">
+        <v>13611</v>
+      </c>
+      <c r="Q34" s="6">
+        <f t="shared" si="7"/>
+        <v>12623.4</v>
+      </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>3</v>
+      <c r="A35" s="5">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>274</v>
+      </c>
+      <c r="C35">
+        <v>283</v>
+      </c>
+      <c r="D35">
+        <v>260</v>
+      </c>
+      <c r="E35">
+        <v>276</v>
+      </c>
+      <c r="F35">
+        <v>272</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="K35" s="5">
+        <v>20</v>
+      </c>
+      <c r="L35">
+        <v>10243</v>
+      </c>
+      <c r="M35">
+        <v>8011</v>
+      </c>
+      <c r="N35">
+        <v>13225</v>
+      </c>
+      <c r="O35">
+        <v>12803</v>
+      </c>
+      <c r="P35">
+        <v>15022</v>
+      </c>
+      <c r="Q35" s="6">
+        <f t="shared" si="7"/>
+        <v>11860.8</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>5</v>
+      <c r="A36" s="7">
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="C36">
-        <v>139</v>
+        <v>298</v>
       </c>
       <c r="D36">
-        <v>130</v>
+        <v>811</v>
       </c>
       <c r="E36">
-        <v>113</v>
+        <v>422</v>
       </c>
       <c r="F36">
-        <v>128</v>
-      </c>
-      <c r="G36" s="7">
-        <f>AVERAGE(B36:F36)</f>
-        <v>124.6</v>
-      </c>
-      <c r="K36" s="6">
-        <v>5</v>
+        <v>251</v>
+      </c>
+      <c r="G36" s="8">
+        <f t="shared" si="6"/>
+        <v>421</v>
+      </c>
+      <c r="K36" s="7">
+        <v>25</v>
       </c>
       <c r="L36">
-        <v>353</v>
+        <v>12881</v>
       </c>
       <c r="M36">
-        <v>2223</v>
+        <v>14208</v>
       </c>
       <c r="N36">
-        <v>635</v>
+        <v>8286</v>
       </c>
       <c r="O36">
-        <v>224</v>
+        <v>13469</v>
       </c>
       <c r="P36">
-        <v>246</v>
-      </c>
-      <c r="Q36" s="7">
-        <f>AVERAGE(L36:P36)</f>
-        <v>736.2</v>
+        <v>12582</v>
+      </c>
+      <c r="Q36" s="8">
+        <f t="shared" si="7"/>
+        <v>12285.2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>10</v>
+    <row r="37" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="C37">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D37">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="E37">
-        <v>159</v>
+        <v>256</v>
       </c>
       <c r="F37">
-        <v>138</v>
-      </c>
-      <c r="G37" s="7">
-        <f t="shared" ref="G37:G41" si="8">AVERAGE(B37:F37)</f>
-        <v>185.2</v>
-      </c>
-      <c r="K37" s="6">
-        <v>10</v>
+        <v>285</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="6"/>
+        <v>275.60000000000002</v>
+      </c>
+      <c r="K37" s="19">
+        <v>30</v>
       </c>
       <c r="L37">
-        <v>679</v>
+        <v>12973</v>
       </c>
       <c r="M37">
-        <v>333</v>
+        <v>10579</v>
       </c>
       <c r="N37">
-        <v>405</v>
+        <v>12340</v>
       </c>
       <c r="O37">
-        <v>1357</v>
+        <v>15074</v>
       </c>
       <c r="P37">
-        <v>1284</v>
-      </c>
-      <c r="Q37" s="7">
-        <f t="shared" ref="Q37:Q41" si="9">AVERAGE(L37:P37)</f>
-        <v>811.6</v>
+        <v>5715</v>
+      </c>
+      <c r="Q37" s="8">
+        <f t="shared" si="7"/>
+        <v>11336.2</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>192</v>
-      </c>
-      <c r="C38">
-        <v>211</v>
-      </c>
-      <c r="D38">
-        <v>210</v>
-      </c>
-      <c r="E38">
-        <v>211</v>
-      </c>
-      <c r="F38">
-        <v>201</v>
-      </c>
-      <c r="G38" s="7">
-        <f t="shared" si="8"/>
-        <v>205</v>
-      </c>
-      <c r="K38" s="6">
-        <v>50</v>
-      </c>
-      <c r="L38">
-        <v>1930</v>
-      </c>
-      <c r="M38">
-        <v>6659</v>
-      </c>
-      <c r="N38">
-        <v>3767</v>
-      </c>
-      <c r="O38">
-        <v>9678</v>
-      </c>
-      <c r="P38">
-        <v>5771</v>
-      </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="9"/>
-        <v>5561</v>
-      </c>
+      <c r="A38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="K38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="22"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>100</v>
-      </c>
-      <c r="B39">
-        <v>240</v>
-      </c>
-      <c r="C39">
-        <v>247</v>
-      </c>
-      <c r="D39">
-        <v>259</v>
-      </c>
-      <c r="E39">
-        <v>207</v>
-      </c>
-      <c r="F39">
-        <v>274</v>
-      </c>
-      <c r="G39" s="7">
-        <f t="shared" si="8"/>
-        <v>245.4</v>
-      </c>
-      <c r="K39" s="6">
-        <v>100</v>
-      </c>
-      <c r="L39">
-        <v>5267</v>
-      </c>
-      <c r="M39">
-        <v>18849</v>
-      </c>
-      <c r="N39">
-        <v>9418</v>
-      </c>
-      <c r="O39">
-        <v>11997</v>
-      </c>
-      <c r="P39">
-        <v>4961</v>
-      </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="9"/>
-        <v>10098.4</v>
+      <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>500</v>
+      <c r="A40" s="5">
+        <v>0</v>
       </c>
       <c r="B40">
-        <v>369</v>
+        <v>487</v>
       </c>
       <c r="C40">
-        <v>373</v>
+        <v>690</v>
       </c>
       <c r="D40">
-        <v>562</v>
+        <v>460</v>
       </c>
       <c r="E40">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F40">
-        <v>296</v>
-      </c>
-      <c r="G40" s="7">
-        <f t="shared" si="8"/>
-        <v>394.4</v>
-      </c>
-      <c r="K40" s="6">
-        <v>500</v>
+        <v>469</v>
+      </c>
+      <c r="G40" s="6">
+        <f>AVERAGE(B40:F40)</f>
+        <v>495.4</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>13653</v>
+        <v>36334</v>
       </c>
       <c r="M40">
-        <v>12332</v>
+        <v>40325</v>
       </c>
       <c r="N40">
-        <v>16495</v>
+        <v>46960</v>
       </c>
       <c r="O40">
-        <v>13298</v>
+        <v>51157</v>
       </c>
       <c r="P40">
-        <v>16797</v>
-      </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="9"/>
-        <v>14515</v>
+        <v>46996</v>
+      </c>
+      <c r="Q40" s="6">
+        <f>AVERAGE(L40:P40)</f>
+        <v>44354.400000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>1000</v>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>555</v>
+        <v>492</v>
       </c>
       <c r="C41">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="D41">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E41">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="F41">
-        <v>495</v>
-      </c>
-      <c r="G41" s="9">
-        <f t="shared" si="8"/>
-        <v>503.2</v>
-      </c>
-      <c r="K41" s="10">
-        <v>1000</v>
+        <v>439</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" ref="G41:G46" si="8">AVERAGE(B41:F41)</f>
+        <v>469.8</v>
+      </c>
+      <c r="K41" s="5">
+        <v>5</v>
       </c>
       <c r="L41">
-        <v>48659</v>
+        <v>39726</v>
       </c>
       <c r="M41">
-        <v>57364</v>
+        <v>38040</v>
       </c>
       <c r="N41">
-        <v>30014</v>
+        <v>31168</v>
       </c>
       <c r="O41">
-        <v>28273</v>
+        <v>27375</v>
       </c>
       <c r="P41">
-        <v>57394</v>
-      </c>
-      <c r="Q41" s="12">
-        <f t="shared" si="9"/>
-        <v>44340.800000000003</v>
+        <v>28870</v>
+      </c>
+      <c r="Q41" s="6">
+        <f t="shared" ref="Q41:Q46" si="9">AVERAGE(L41:P41)</f>
+        <v>33035.800000000003</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="K42" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="25"/>
+      <c r="A42" s="5">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>635</v>
+      </c>
+      <c r="C42">
+        <v>1010</v>
+      </c>
+      <c r="D42">
+        <v>579</v>
+      </c>
+      <c r="E42">
+        <v>1020</v>
+      </c>
+      <c r="F42">
+        <v>689</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="8"/>
+        <v>786.6</v>
+      </c>
+      <c r="K42" s="5">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>13914</v>
+      </c>
+      <c r="M42">
+        <v>12392</v>
+      </c>
+      <c r="N42">
+        <v>18456</v>
+      </c>
+      <c r="O42">
+        <v>17944</v>
+      </c>
+      <c r="P42">
+        <v>16935</v>
+      </c>
+      <c r="Q42" s="6">
+        <f t="shared" si="9"/>
+        <v>15928.2</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>3</v>
+      <c r="A43" s="5">
+        <v>15</v>
+      </c>
+      <c r="B43">
+        <v>792</v>
+      </c>
+      <c r="C43">
+        <v>926</v>
+      </c>
+      <c r="D43">
+        <v>626</v>
+      </c>
+      <c r="E43">
+        <v>1131</v>
+      </c>
+      <c r="F43">
+        <v>885</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="8"/>
+        <v>872</v>
+      </c>
+      <c r="K43" s="5">
+        <v>15</v>
+      </c>
+      <c r="L43">
+        <v>11679</v>
+      </c>
+      <c r="M43">
+        <v>19551</v>
+      </c>
+      <c r="N43">
+        <v>12602</v>
+      </c>
+      <c r="O43">
+        <v>9962</v>
+      </c>
+      <c r="P43">
+        <v>14835</v>
+      </c>
+      <c r="Q43" s="6">
+        <f t="shared" si="9"/>
+        <v>13725.8</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>5</v>
+      <c r="A44" s="5">
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>144</v>
+        <v>1475</v>
       </c>
       <c r="C44">
-        <v>174</v>
+        <v>2125</v>
       </c>
       <c r="D44">
-        <v>129</v>
+        <v>1600</v>
       </c>
       <c r="E44">
-        <v>129</v>
+        <v>1911</v>
       </c>
       <c r="F44">
-        <v>166</v>
-      </c>
-      <c r="G44" s="7">
-        <f>AVERAGE(B44:F44)</f>
-        <v>148.4</v>
-      </c>
-      <c r="K44" s="6">
-        <v>5</v>
+        <v>1423</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="8"/>
+        <v>1706.8</v>
+      </c>
+      <c r="K44" s="5">
+        <v>20</v>
       </c>
       <c r="L44">
-        <v>822</v>
+        <v>13227</v>
       </c>
       <c r="M44">
-        <v>520</v>
+        <v>11829</v>
       </c>
       <c r="N44">
-        <v>626</v>
+        <v>14090</v>
       </c>
       <c r="O44">
-        <v>907</v>
+        <v>15984</v>
       </c>
       <c r="P44">
-        <v>713</v>
-      </c>
-      <c r="Q44" s="7">
-        <f>AVERAGE(L44:P44)</f>
-        <v>717.6</v>
+        <v>8872</v>
+      </c>
+      <c r="Q44" s="6">
+        <f t="shared" si="9"/>
+        <v>12800.4</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>10</v>
+      <c r="A45" s="7">
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>155</v>
+        <v>1404</v>
       </c>
       <c r="C45">
-        <v>199</v>
+        <v>3582</v>
       </c>
       <c r="D45">
-        <v>172</v>
+        <v>3298</v>
       </c>
       <c r="E45">
-        <v>186</v>
+        <v>3094</v>
       </c>
       <c r="F45">
-        <v>193</v>
-      </c>
-      <c r="G45" s="7">
-        <f t="shared" ref="G45:G49" si="10">AVERAGE(B45:F45)</f>
-        <v>181</v>
-      </c>
-      <c r="K45" s="6">
-        <v>10</v>
+        <v>2344</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="8"/>
+        <v>2744.4</v>
+      </c>
+      <c r="K45" s="7">
+        <v>25</v>
       </c>
       <c r="L45">
-        <v>948</v>
+        <v>9308</v>
       </c>
       <c r="M45">
-        <v>1222</v>
+        <v>7998</v>
       </c>
       <c r="N45">
-        <v>541</v>
+        <v>10101</v>
       </c>
       <c r="O45">
-        <v>157</v>
+        <v>9488</v>
       </c>
       <c r="P45">
-        <v>539</v>
-      </c>
-      <c r="Q45" s="7">
-        <f t="shared" ref="Q45:Q49" si="11">AVERAGE(L45:P45)</f>
-        <v>681.4</v>
+        <v>21482</v>
+      </c>
+      <c r="Q45" s="8">
+        <f t="shared" si="9"/>
+        <v>11675.4</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>50</v>
+    <row r="46" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="19">
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>196</v>
+        <v>5772</v>
       </c>
       <c r="C46">
-        <v>206</v>
+        <v>4889</v>
       </c>
       <c r="D46">
-        <v>186</v>
+        <v>6142</v>
       </c>
       <c r="E46">
-        <v>196</v>
+        <v>6661</v>
       </c>
       <c r="F46">
-        <v>555</v>
-      </c>
-      <c r="G46" s="7">
-        <f t="shared" si="10"/>
-        <v>267.8</v>
-      </c>
-      <c r="K46" s="6">
-        <v>50</v>
+        <v>4114</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="8"/>
+        <v>5515.6</v>
+      </c>
+      <c r="K46" s="19">
+        <v>30</v>
       </c>
       <c r="L46">
-        <v>812</v>
+        <v>18061</v>
       </c>
       <c r="M46">
-        <v>3898</v>
+        <v>23564</v>
       </c>
       <c r="N46">
-        <v>3755</v>
+        <v>26620</v>
       </c>
       <c r="O46">
-        <v>2914</v>
+        <v>22156</v>
       </c>
       <c r="P46">
-        <v>2942</v>
-      </c>
-      <c r="Q46" s="7">
-        <f t="shared" si="11"/>
-        <v>2864.2</v>
+        <v>14419</v>
+      </c>
+      <c r="Q46" s="8">
+        <f t="shared" si="9"/>
+        <v>20964</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>100</v>
-      </c>
-      <c r="B47">
-        <v>217</v>
-      </c>
-      <c r="C47">
-        <v>201</v>
-      </c>
-      <c r="D47">
-        <v>202</v>
-      </c>
-      <c r="E47">
-        <v>199</v>
-      </c>
-      <c r="F47">
-        <v>201</v>
-      </c>
-      <c r="G47" s="7">
-        <f t="shared" si="10"/>
-        <v>204</v>
-      </c>
-      <c r="K47" s="6">
-        <v>100</v>
-      </c>
-      <c r="L47">
-        <v>3765</v>
-      </c>
-      <c r="M47">
-        <v>3298</v>
-      </c>
-      <c r="N47">
-        <v>4038</v>
-      </c>
-      <c r="O47">
-        <v>3831</v>
-      </c>
-      <c r="P47">
-        <v>3902</v>
-      </c>
-      <c r="Q47" s="7">
-        <f t="shared" si="11"/>
-        <v>3766.8</v>
-      </c>
+      <c r="A47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+      <c r="K47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="22"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>500</v>
-      </c>
-      <c r="B48">
-        <v>213</v>
-      </c>
-      <c r="C48">
-        <v>215</v>
-      </c>
-      <c r="D48">
+      <c r="A48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>232</v>
+      </c>
+      <c r="C49">
+        <v>254</v>
+      </c>
+      <c r="D49">
+        <v>243</v>
+      </c>
+      <c r="E49">
+        <v>234</v>
+      </c>
+      <c r="F49">
         <v>223</v>
       </c>
-      <c r="E48">
-        <v>223</v>
-      </c>
-      <c r="F48">
-        <v>226</v>
-      </c>
-      <c r="G48" s="7">
+      <c r="G49" s="6">
+        <f>AVERAGE(B49:F49)</f>
+        <v>237.2</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>4972</v>
+      </c>
+      <c r="M49">
+        <v>5724</v>
+      </c>
+      <c r="N49">
+        <v>5591</v>
+      </c>
+      <c r="O49">
+        <v>6793</v>
+      </c>
+      <c r="P49">
+        <v>6354</v>
+      </c>
+      <c r="Q49" s="6">
+        <f>AVERAGE(L49:P49)</f>
+        <v>5886.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>232</v>
+      </c>
+      <c r="C50">
+        <v>445</v>
+      </c>
+      <c r="D50">
+        <v>246</v>
+      </c>
+      <c r="E50">
+        <v>238</v>
+      </c>
+      <c r="F50">
+        <v>442</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50:G55" si="10">AVERAGE(B50:F50)</f>
+        <v>320.60000000000002</v>
+      </c>
+      <c r="K50" s="5">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>7052</v>
+      </c>
+      <c r="M50">
+        <v>7299</v>
+      </c>
+      <c r="N50">
+        <v>7712</v>
+      </c>
+      <c r="O50">
+        <v>7318</v>
+      </c>
+      <c r="P50">
+        <v>7001</v>
+      </c>
+      <c r="Q50" s="6">
+        <f t="shared" ref="Q50:Q55" si="11">AVERAGE(L50:P50)</f>
+        <v>7276.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>282</v>
+      </c>
+      <c r="C51">
+        <v>240</v>
+      </c>
+      <c r="D51">
+        <v>250</v>
+      </c>
+      <c r="E51">
+        <v>244</v>
+      </c>
+      <c r="F51">
+        <v>238</v>
+      </c>
+      <c r="G51" s="6">
         <f t="shared" si="10"/>
-        <v>220</v>
-      </c>
-      <c r="K48" s="6">
-        <v>500</v>
-      </c>
-      <c r="L48">
-        <v>5117</v>
-      </c>
-      <c r="M48">
-        <v>4869</v>
-      </c>
-      <c r="N48">
-        <v>5681</v>
-      </c>
-      <c r="O48">
-        <v>4183</v>
-      </c>
-      <c r="P48">
-        <v>4785</v>
-      </c>
-      <c r="Q48" s="7">
+        <v>250.8</v>
+      </c>
+      <c r="K51" s="5">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>7408</v>
+      </c>
+      <c r="M51">
+        <v>8141</v>
+      </c>
+      <c r="N51">
+        <v>8520</v>
+      </c>
+      <c r="O51">
+        <v>12417</v>
+      </c>
+      <c r="P51">
+        <v>8575</v>
+      </c>
+      <c r="Q51" s="6">
         <f t="shared" si="11"/>
-        <v>4927</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
-        <v>1000</v>
-      </c>
-      <c r="B49">
-        <v>254</v>
-      </c>
-      <c r="C49">
-        <v>252</v>
-      </c>
-      <c r="D49">
-        <v>416</v>
-      </c>
-      <c r="E49">
-        <v>227</v>
-      </c>
-      <c r="F49">
-        <v>229</v>
-      </c>
-      <c r="G49" s="12">
-        <f t="shared" si="10"/>
-        <v>275.60000000000002</v>
-      </c>
-      <c r="K49" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L49">
-        <v>4916</v>
-      </c>
-      <c r="M49">
-        <v>5996</v>
-      </c>
-      <c r="N49">
-        <v>6178</v>
-      </c>
-      <c r="O49">
-        <v>6270</v>
-      </c>
-      <c r="P49">
-        <v>6127</v>
-      </c>
-      <c r="Q49" s="12">
-        <f t="shared" si="11"/>
-        <v>5897.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O51" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="P51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q51" s="16" t="s">
-        <v>13</v>
+        <v>9012.2000000000007</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="21">
-        <v>5</v>
-      </c>
-      <c r="B52" s="17">
-        <f>G4</f>
-        <v>166.8</v>
-      </c>
-      <c r="C52" s="17">
-        <f>G12</f>
-        <v>115.8</v>
-      </c>
-      <c r="D52" s="17">
-        <f>G20</f>
-        <v>90</v>
-      </c>
-      <c r="E52" s="17">
-        <f>G28</f>
-        <v>181.8</v>
-      </c>
-      <c r="F52" s="17">
-        <f>G36</f>
-        <v>124.6</v>
-      </c>
-      <c r="G52" s="18">
-        <f>G44</f>
-        <v>148.4</v>
-      </c>
-      <c r="K52" s="6">
-        <v>5</v>
-      </c>
-      <c r="L52" s="2">
-        <f>Q4</f>
-        <v>252.2</v>
-      </c>
-      <c r="M52" s="2">
-        <f>Q12</f>
-        <v>414.6</v>
-      </c>
-      <c r="N52" s="2">
-        <f>Q20</f>
-        <v>89</v>
-      </c>
-      <c r="O52" s="2">
-        <f>Q28</f>
-        <v>205.2</v>
-      </c>
-      <c r="P52" s="2">
-        <f>Q36</f>
-        <v>736.2</v>
-      </c>
-      <c r="Q52" s="7">
-        <f>Q44</f>
-        <v>717.6</v>
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52">
+        <v>270</v>
+      </c>
+      <c r="C52">
+        <v>261</v>
+      </c>
+      <c r="D52">
+        <v>255</v>
+      </c>
+      <c r="E52">
+        <v>252</v>
+      </c>
+      <c r="F52">
+        <v>564</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="10"/>
+        <v>320.39999999999998</v>
+      </c>
+      <c r="K52" s="5">
+        <v>15</v>
+      </c>
+      <c r="L52">
+        <v>8439</v>
+      </c>
+      <c r="M52">
+        <v>8237</v>
+      </c>
+      <c r="N52">
+        <v>9218</v>
+      </c>
+      <c r="O52">
+        <v>10059</v>
+      </c>
+      <c r="P52">
+        <v>8398</v>
+      </c>
+      <c r="Q52" s="6">
+        <f t="shared" si="11"/>
+        <v>8870.2000000000007</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="21">
+      <c r="A53" s="5">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>422</v>
+      </c>
+      <c r="C53">
+        <v>594</v>
+      </c>
+      <c r="D53">
+        <v>307</v>
+      </c>
+      <c r="E53">
+        <v>379</v>
+      </c>
+      <c r="F53">
+        <v>470</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="10"/>
+        <v>434.4</v>
+      </c>
+      <c r="K53" s="5">
+        <v>20</v>
+      </c>
+      <c r="L53">
+        <v>9275</v>
+      </c>
+      <c r="M53">
+        <v>9273</v>
+      </c>
+      <c r="N53">
+        <v>9070</v>
+      </c>
+      <c r="O53">
+        <v>11224</v>
+      </c>
+      <c r="P53">
+        <v>7858</v>
+      </c>
+      <c r="Q53" s="6">
+        <f t="shared" si="11"/>
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>386</v>
+      </c>
+      <c r="C54">
+        <v>400</v>
+      </c>
+      <c r="D54">
+        <v>489</v>
+      </c>
+      <c r="E54">
+        <v>429</v>
+      </c>
+      <c r="F54">
+        <v>578</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="10"/>
+        <v>456.4</v>
+      </c>
+      <c r="K54" s="7">
+        <v>25</v>
+      </c>
+      <c r="L54">
+        <v>5997</v>
+      </c>
+      <c r="M54">
+        <v>9589</v>
+      </c>
+      <c r="N54">
+        <v>6805</v>
+      </c>
+      <c r="O54">
+        <v>9606</v>
+      </c>
+      <c r="P54">
+        <v>9579</v>
+      </c>
+      <c r="Q54" s="9">
+        <f t="shared" si="11"/>
+        <v>8315.2000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="19">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>649</v>
+      </c>
+      <c r="C55">
+        <v>602</v>
+      </c>
+      <c r="D55">
+        <v>1293</v>
+      </c>
+      <c r="E55">
+        <v>899</v>
+      </c>
+      <c r="F55">
+        <v>695</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" si="10"/>
+        <v>827.6</v>
+      </c>
+      <c r="K55" s="19">
+        <v>30</v>
+      </c>
+      <c r="L55">
+        <v>10225</v>
+      </c>
+      <c r="M55">
+        <v>7974</v>
+      </c>
+      <c r="N55">
+        <v>15162</v>
+      </c>
+      <c r="O55">
+        <v>4974</v>
+      </c>
+      <c r="P55">
+        <v>9044</v>
+      </c>
+      <c r="Q55" s="9">
+        <f t="shared" si="11"/>
+        <v>9475.7999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="17">
-        <f t="shared" ref="B53:B57" si="12">G5</f>
-        <v>194.6</v>
-      </c>
-      <c r="C53" s="17">
-        <f t="shared" ref="C53:C57" si="13">G13</f>
-        <v>201</v>
-      </c>
-      <c r="D53" s="17">
-        <f t="shared" ref="D53:D57" si="14">G21</f>
-        <v>282</v>
-      </c>
-      <c r="E53" s="17">
-        <f t="shared" ref="E53:E57" si="15">G29</f>
-        <v>222.2</v>
-      </c>
-      <c r="F53" s="17">
-        <f t="shared" ref="F53:F57" si="16">G37</f>
-        <v>185.2</v>
-      </c>
-      <c r="G53" s="18">
-        <f t="shared" ref="G53:G57" si="17">G45</f>
-        <v>181</v>
-      </c>
-      <c r="K53" s="6">
+      <c r="F57" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="O57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L53" s="2">
-        <f t="shared" ref="L53:L57" si="18">Q5</f>
-        <v>636.4</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" ref="M53:M57" si="19">Q13</f>
-        <v>2686</v>
-      </c>
-      <c r="N53" s="2">
-        <f t="shared" ref="N53:N57" si="20">Q21</f>
-        <v>163.80000000000001</v>
-      </c>
-      <c r="O53" s="2">
-        <f t="shared" ref="O53:O57" si="21">Q29</f>
-        <v>191.8</v>
-      </c>
-      <c r="P53" s="2">
-        <f t="shared" ref="P53:P57" si="22">Q37</f>
-        <v>811.6</v>
-      </c>
-      <c r="Q53" s="7">
-        <f t="shared" ref="Q53:Q57" si="23">Q45</f>
-        <v>681.4</v>
+      <c r="P57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="21">
-        <v>50</v>
-      </c>
-      <c r="B54" s="17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>0</v>
+      </c>
+      <c r="B58" s="13">
+        <f t="shared" ref="B58:B64" si="12">G4</f>
+        <v>1748.6</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" ref="C58:C64" si="13">G13</f>
+        <v>4343.3999999999996</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" ref="D58:D64" si="14">G22</f>
+        <v>420</v>
+      </c>
+      <c r="E58" s="13">
+        <f t="shared" ref="E58:E64" si="15">G31</f>
+        <v>250.4</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" ref="F58:F64" si="16">G40</f>
+        <v>495.4</v>
+      </c>
+      <c r="G58" s="14">
+        <f>G49</f>
+        <v>237.2</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="13">
+        <f t="shared" ref="L58:L64" si="17">Q4</f>
+        <v>14111.6</v>
+      </c>
+      <c r="M58" s="13">
+        <f t="shared" ref="M58:M64" si="18">Q13</f>
+        <v>30003.599999999999</v>
+      </c>
+      <c r="N58" s="13">
+        <f t="shared" ref="N58:N64" si="19">Q22</f>
+        <v>43980.800000000003</v>
+      </c>
+      <c r="O58" s="13">
+        <f t="shared" ref="O58:O64" si="20">Q31</f>
+        <v>10627</v>
+      </c>
+      <c r="P58" s="13">
+        <f t="shared" ref="P58:P64" si="21">Q40</f>
+        <v>44354.400000000001</v>
+      </c>
+      <c r="Q58" s="14">
+        <f>Q49</f>
+        <v>5886.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>5</v>
+      </c>
+      <c r="B59" s="13">
         <f t="shared" si="12"/>
-        <v>236</v>
-      </c>
-      <c r="C54" s="17">
+        <v>75247.8</v>
+      </c>
+      <c r="C59" s="13">
         <f t="shared" si="13"/>
-        <v>291.60000000000002</v>
-      </c>
-      <c r="D54" s="17">
+        <v>11346.2</v>
+      </c>
+      <c r="D59" s="13">
         <f t="shared" si="14"/>
-        <v>1623</v>
-      </c>
-      <c r="E54" s="17">
+        <v>302.8</v>
+      </c>
+      <c r="E59" s="13">
         <f t="shared" si="15"/>
-        <v>225.4</v>
-      </c>
-      <c r="F54" s="17">
+        <v>347.4</v>
+      </c>
+      <c r="F59" s="13">
         <f t="shared" si="16"/>
-        <v>205</v>
-      </c>
-      <c r="G54" s="18">
+        <v>469.8</v>
+      </c>
+      <c r="G59" s="14">
+        <f t="shared" ref="G59:G64" si="22">G50</f>
+        <v>320.60000000000002</v>
+      </c>
+      <c r="K59" s="5">
+        <v>5</v>
+      </c>
+      <c r="L59" s="13">
         <f t="shared" si="17"/>
-        <v>267.8</v>
-      </c>
-      <c r="K54" s="6">
-        <v>50</v>
-      </c>
-      <c r="L54" s="2">
+        <v>18002.400000000001</v>
+      </c>
+      <c r="M59" s="13">
         <f t="shared" si="18"/>
-        <v>902.2</v>
-      </c>
-      <c r="M54" s="2">
+        <v>65739.199999999997</v>
+      </c>
+      <c r="N59" s="13">
         <f t="shared" si="19"/>
-        <v>2665.6</v>
-      </c>
-      <c r="N54" s="2">
+        <v>48268.800000000003</v>
+      </c>
+      <c r="O59" s="13">
         <f t="shared" si="20"/>
-        <v>2668.6</v>
-      </c>
-      <c r="O54" s="2">
+        <v>11241</v>
+      </c>
+      <c r="P59" s="13">
         <f t="shared" si="21"/>
-        <v>1532.4</v>
-      </c>
-      <c r="P54" s="2">
+        <v>33035.800000000003</v>
+      </c>
+      <c r="Q59" s="14">
+        <f t="shared" ref="Q59:Q64" si="23">Q50</f>
+        <v>7276.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>10</v>
+      </c>
+      <c r="B60" s="13">
+        <f t="shared" si="12"/>
+        <v>68335.600000000006</v>
+      </c>
+      <c r="C60" s="13">
+        <f t="shared" si="13"/>
+        <v>15853.4</v>
+      </c>
+      <c r="D60" s="13">
+        <f t="shared" si="14"/>
+        <v>341.6</v>
+      </c>
+      <c r="E60" s="13">
+        <f t="shared" si="15"/>
+        <v>353.2</v>
+      </c>
+      <c r="F60" s="13">
+        <f t="shared" si="16"/>
+        <v>786.6</v>
+      </c>
+      <c r="G60" s="14">
         <f t="shared" si="22"/>
-        <v>5561</v>
-      </c>
-      <c r="Q54" s="7">
+        <v>250.8</v>
+      </c>
+      <c r="K60" s="5">
+        <v>10</v>
+      </c>
+      <c r="L60" s="13">
+        <f t="shared" si="17"/>
+        <v>23872.799999999999</v>
+      </c>
+      <c r="M60" s="13">
+        <f t="shared" si="18"/>
+        <v>70884.2</v>
+      </c>
+      <c r="N60" s="13">
+        <f t="shared" si="19"/>
+        <v>33532</v>
+      </c>
+      <c r="O60" s="13">
+        <f t="shared" si="20"/>
+        <v>10695.6</v>
+      </c>
+      <c r="P60" s="13">
+        <f t="shared" si="21"/>
+        <v>15928.2</v>
+      </c>
+      <c r="Q60" s="14">
         <f t="shared" si="23"/>
-        <v>2864.2</v>
+        <v>9012.2000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="21">
-        <v>100</v>
-      </c>
-      <c r="B55" s="17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>15</v>
+      </c>
+      <c r="B61" s="13">
         <f t="shared" si="12"/>
-        <v>230.2</v>
-      </c>
-      <c r="C55" s="17">
+        <v>58804</v>
+      </c>
+      <c r="C61" s="13">
         <f t="shared" si="13"/>
-        <v>774.4</v>
-      </c>
-      <c r="D55" s="17">
+        <v>20830</v>
+      </c>
+      <c r="D61" s="13">
         <f t="shared" si="14"/>
-        <v>1835.2</v>
-      </c>
-      <c r="E55" s="17">
+        <v>314</v>
+      </c>
+      <c r="E61" s="13">
         <f t="shared" si="15"/>
-        <v>217</v>
-      </c>
-      <c r="F55" s="17">
+        <v>288</v>
+      </c>
+      <c r="F61" s="13">
         <f t="shared" si="16"/>
-        <v>245.4</v>
-      </c>
-      <c r="G55" s="18">
+        <v>872</v>
+      </c>
+      <c r="G61" s="14">
+        <f t="shared" si="22"/>
+        <v>320.39999999999998</v>
+      </c>
+      <c r="K61" s="5">
+        <v>15</v>
+      </c>
+      <c r="L61" s="13">
         <f t="shared" si="17"/>
-        <v>204</v>
-      </c>
-      <c r="K55" s="6">
-        <v>100</v>
-      </c>
-      <c r="L55" s="2">
+        <v>25195.8</v>
+      </c>
+      <c r="M61" s="13">
         <f t="shared" si="18"/>
-        <v>1042.4000000000001</v>
-      </c>
-      <c r="M55" s="2">
+        <v>72529.8</v>
+      </c>
+      <c r="N61" s="13">
         <f t="shared" si="19"/>
-        <v>5798</v>
-      </c>
-      <c r="N55" s="2">
+        <v>44873.8</v>
+      </c>
+      <c r="O61" s="13">
         <f t="shared" si="20"/>
-        <v>10414</v>
-      </c>
-      <c r="O55" s="2">
+        <v>12623.4</v>
+      </c>
+      <c r="P61" s="13">
         <f t="shared" si="21"/>
-        <v>2191.4</v>
-      </c>
-      <c r="P55" s="2">
+        <v>13725.8</v>
+      </c>
+      <c r="Q61" s="14">
+        <f t="shared" si="23"/>
+        <v>8870.2000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>20</v>
+      </c>
+      <c r="B62" s="13">
+        <f t="shared" si="12"/>
+        <v>52490.2</v>
+      </c>
+      <c r="C62" s="13">
+        <f t="shared" si="13"/>
+        <v>25155.599999999999</v>
+      </c>
+      <c r="D62" s="13">
+        <f t="shared" si="14"/>
+        <v>344.8</v>
+      </c>
+      <c r="E62" s="13">
+        <f t="shared" si="15"/>
+        <v>273</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="16"/>
+        <v>1706.8</v>
+      </c>
+      <c r="G62" s="14">
         <f t="shared" si="22"/>
-        <v>10098.4</v>
-      </c>
-      <c r="Q55" s="7">
+        <v>434.4</v>
+      </c>
+      <c r="K62" s="5">
+        <v>20</v>
+      </c>
+      <c r="L62" s="13">
+        <f t="shared" si="17"/>
+        <v>26919.4</v>
+      </c>
+      <c r="M62" s="13">
+        <f t="shared" si="18"/>
+        <v>77061.2</v>
+      </c>
+      <c r="N62" s="13">
+        <f t="shared" si="19"/>
+        <v>43016</v>
+      </c>
+      <c r="O62" s="13">
+        <f t="shared" si="20"/>
+        <v>11860.8</v>
+      </c>
+      <c r="P62" s="13">
+        <f t="shared" si="21"/>
+        <v>12800.4</v>
+      </c>
+      <c r="Q62" s="14">
         <f t="shared" si="23"/>
-        <v>3766.8</v>
+        <v>9340</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="21">
-        <v>500</v>
-      </c>
-      <c r="B56" s="17">
+    <row r="63" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>25</v>
+      </c>
+      <c r="B63" s="15">
         <f t="shared" si="12"/>
-        <v>560</v>
-      </c>
-      <c r="C56" s="17">
+        <v>42480.6</v>
+      </c>
+      <c r="C63" s="15">
         <f t="shared" si="13"/>
-        <v>2114.4</v>
-      </c>
-      <c r="D56" s="17">
+        <v>27423</v>
+      </c>
+      <c r="D63" s="15">
         <f t="shared" si="14"/>
-        <v>310</v>
-      </c>
-      <c r="E56" s="17">
+        <v>344.6</v>
+      </c>
+      <c r="E63" s="15">
         <f t="shared" si="15"/>
-        <v>232.4</v>
-      </c>
-      <c r="F56" s="17">
+        <v>421</v>
+      </c>
+      <c r="F63" s="15">
         <f t="shared" si="16"/>
-        <v>394.4</v>
-      </c>
-      <c r="G56" s="18">
+        <v>2744.4</v>
+      </c>
+      <c r="G63" s="16">
+        <f t="shared" si="22"/>
+        <v>456.4</v>
+      </c>
+      <c r="K63" s="7">
+        <v>25</v>
+      </c>
+      <c r="L63" s="15">
         <f t="shared" si="17"/>
-        <v>220</v>
-      </c>
-      <c r="K56" s="6">
-        <v>500</v>
-      </c>
-      <c r="L56" s="2">
+        <v>27289</v>
+      </c>
+      <c r="M63" s="15">
         <f t="shared" si="18"/>
-        <v>3670</v>
-      </c>
-      <c r="M56" s="2">
+        <v>73705.399999999994</v>
+      </c>
+      <c r="N63" s="15">
         <f t="shared" si="19"/>
-        <v>9510.6</v>
-      </c>
-      <c r="N56" s="2">
+        <v>43373.4</v>
+      </c>
+      <c r="O63" s="15">
         <f t="shared" si="20"/>
-        <v>13337</v>
-      </c>
-      <c r="O56" s="2">
+        <v>12285.2</v>
+      </c>
+      <c r="P63" s="15">
         <f t="shared" si="21"/>
-        <v>4991.3999999999996</v>
-      </c>
-      <c r="P56" s="2">
+        <v>11675.4</v>
+      </c>
+      <c r="Q63" s="16">
+        <f t="shared" si="23"/>
+        <v>8315.2000000000007</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="19">
+        <v>30</v>
+      </c>
+      <c r="B64" s="15">
+        <f t="shared" si="12"/>
+        <v>38279.199999999997</v>
+      </c>
+      <c r="C64" s="15">
+        <f t="shared" si="13"/>
+        <v>30097</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" si="14"/>
+        <v>298.39999999999998</v>
+      </c>
+      <c r="E64" s="15">
+        <f t="shared" si="15"/>
+        <v>275.60000000000002</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="16"/>
+        <v>5515.6</v>
+      </c>
+      <c r="G64" s="16">
         <f t="shared" si="22"/>
-        <v>14515</v>
-      </c>
-      <c r="Q56" s="7">
+        <v>827.6</v>
+      </c>
+      <c r="K64" s="19">
+        <v>30</v>
+      </c>
+      <c r="L64" s="15">
+        <f t="shared" si="17"/>
+        <v>26330.400000000001</v>
+      </c>
+      <c r="M64" s="15">
+        <f t="shared" si="18"/>
+        <v>75158.2</v>
+      </c>
+      <c r="N64" s="15">
+        <f t="shared" si="19"/>
+        <v>46856</v>
+      </c>
+      <c r="O64" s="15">
+        <f t="shared" si="20"/>
+        <v>11336.2</v>
+      </c>
+      <c r="P64" s="15">
+        <f t="shared" si="21"/>
+        <v>20964</v>
+      </c>
+      <c r="Q64" s="16">
         <f t="shared" si="23"/>
-        <v>4927</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
-        <v>1000</v>
-      </c>
-      <c r="B57" s="19">
-        <f t="shared" si="12"/>
-        <v>1842.6</v>
-      </c>
-      <c r="C57" s="19">
-        <f t="shared" si="13"/>
-        <v>4448.8</v>
-      </c>
-      <c r="D57" s="19">
-        <f t="shared" si="14"/>
-        <v>347.2</v>
-      </c>
-      <c r="E57" s="19">
-        <f t="shared" si="15"/>
-        <v>266.60000000000002</v>
-      </c>
-      <c r="F57" s="19">
-        <f t="shared" si="16"/>
-        <v>503.2</v>
-      </c>
-      <c r="G57" s="20">
-        <f t="shared" si="17"/>
-        <v>275.60000000000002</v>
-      </c>
-      <c r="K57" s="10">
-        <v>1000</v>
-      </c>
-      <c r="L57" s="11">
-        <f t="shared" si="18"/>
-        <v>16360.8</v>
-      </c>
-      <c r="M57" s="11">
-        <f t="shared" si="19"/>
-        <v>23488.2</v>
-      </c>
-      <c r="N57" s="11">
-        <f t="shared" si="20"/>
-        <v>42891.8</v>
-      </c>
-      <c r="O57" s="11">
-        <f t="shared" si="21"/>
-        <v>10380.799999999999</v>
-      </c>
-      <c r="P57" s="11">
-        <f t="shared" si="22"/>
-        <v>44340.800000000003</v>
-      </c>
-      <c r="Q57" s="12">
-        <f t="shared" si="23"/>
-        <v>5897.4</v>
+        <v>9475.7999999999993</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A47:G47"/>
     <mergeCell ref="K1:Q1"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="K26:Q26"/>
-    <mergeCell ref="K34:Q34"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K47:Q47"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6830,112 +7193,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A91A1F-95E0-4C2F-9D8B-7A40EE52E82C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F5"/>
+      <selection activeCell="G1" sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>822</v>
+        <v>37742</v>
       </c>
       <c r="B1">
-        <v>948</v>
+        <v>52791</v>
       </c>
       <c r="C1">
-        <v>812</v>
+        <v>47168</v>
       </c>
       <c r="D1">
-        <v>3765</v>
+        <v>38842</v>
       </c>
       <c r="E1">
-        <v>5117</v>
+        <v>46772</v>
       </c>
       <c r="F1">
-        <v>4916</v>
+        <v>44299</v>
+      </c>
+      <c r="G1">
+        <v>38435</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>520</v>
+        <v>41249</v>
       </c>
       <c r="B2">
-        <v>1222</v>
+        <v>45938</v>
       </c>
       <c r="C2">
-        <v>3898</v>
+        <v>3913</v>
       </c>
       <c r="D2">
-        <v>3298</v>
+        <v>47873</v>
       </c>
       <c r="E2">
-        <v>4869</v>
+        <v>43397</v>
       </c>
       <c r="F2">
-        <v>5996</v>
+        <v>45047</v>
+      </c>
+      <c r="G2">
+        <v>47583</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>626</v>
+        <v>44601</v>
       </c>
       <c r="B3">
-        <v>541</v>
+        <v>43779</v>
       </c>
       <c r="C3">
-        <v>3755</v>
+        <v>34742</v>
       </c>
       <c r="D3">
-        <v>4038</v>
+        <v>47230</v>
       </c>
       <c r="E3">
-        <v>5681</v>
+        <v>40663</v>
       </c>
       <c r="F3">
-        <v>6178</v>
+        <v>37403</v>
+      </c>
+      <c r="G3">
+        <v>51707</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>907</v>
+        <v>48684</v>
       </c>
       <c r="B4">
-        <v>157</v>
+        <v>45973</v>
       </c>
       <c r="C4">
-        <v>2914</v>
+        <v>44289</v>
       </c>
       <c r="D4">
-        <v>3831</v>
+        <v>43288</v>
       </c>
       <c r="E4">
-        <v>4183</v>
+        <v>42004</v>
       </c>
       <c r="F4">
-        <v>6270</v>
+        <v>43906</v>
+      </c>
+      <c r="G4">
+        <v>50107</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>713</v>
+        <v>47628</v>
       </c>
       <c r="B5">
-        <v>539</v>
+        <v>52863</v>
       </c>
       <c r="C5">
-        <v>2942</v>
+        <v>37548</v>
       </c>
       <c r="D5">
-        <v>3902</v>
+        <v>47136</v>
       </c>
       <c r="E5">
-        <v>4785</v>
+        <v>42244</v>
       </c>
       <c r="F5">
-        <v>6127</v>
+        <v>46212</v>
+      </c>
+      <c r="G5">
+        <v>46448</v>
       </c>
     </row>
   </sheetData>

--- a/project_2 V2 - Bonus/DOS Project 2.xlsx
+++ b/project_2 V2 - Bonus/DOS Project 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcas\Documents\Distributed Operating System\Project 2\DOS_Project_2\project_2 V2 - Bonus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3910EC10-95AE-4C40-87E2-17F528A2A61C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB9DCCF-56FD-4975-BFA2-7F80DE4E5E87}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1448,7 +1448,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Node Count</a:t>
+                  <a:t>FailuRE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2667,9 +2667,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Node Count</a:t>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>FailuRE</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4365,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
